--- a/final_data_pipeline/output/311423longform.xlsx
+++ b/final_data_pipeline/output/311423longform.xlsx
@@ -4770,7 +4770,7 @@
         <v>56</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -4853,7 +4853,7 @@
         <v>56</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -4936,7 +4936,7 @@
         <v>56</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5019,7 +5019,7 @@
         <v>56</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5102,7 +5102,7 @@
         <v>56</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5185,7 +5185,7 @@
         <v>56</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5766,7 +5766,7 @@
         <v>56</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -5849,7 +5849,7 @@
         <v>56</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -5932,7 +5932,7 @@
         <v>56</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6015,7 +6015,7 @@
         <v>56</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6098,7 +6098,7 @@
         <v>56</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6181,7 +6181,7 @@
         <v>56</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB67">
         <v>8000</v>
